--- a/Exp_Record_Caos.xlsx
+++ b/Exp_Record_Caos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="142">
   <si>
     <t>ChanQual</t>
   </si>
@@ -203,6 +203,120 @@
 almost had 75, 350, back to 50 cc</t>
   </si>
   <si>
+    <t>LOST ALL NOTES! DISASTER
+started with 001 rf mapping, lost the time
+153 PM per WC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">002 2:04 PM biggan
+79 (0 0) 2 1 CMAES 5/5 hash
+psth not great
+DEEPSIM succeeded, biggan not
+Experiment: generate_BigGAN 
+Conditions: generate_BigGAN 
+Subject: Caos 
+Start time: Dec-09-2024 
+End time: Dec-09-2024 
+(Elapsed: 
+# of completed blocks: 27 
+Success rate: 77.84% (z 453 1 582) 
+Open MLpIayer for replay 
+1.4 
+1.2 
+0.8 
+0.6 
+0.4 
+0.2 
+0.05 
+0.1 
+0.15 
+0.2 
+025 </t>
+  </si>
+  <si>
+    <t>Trying biggan again with SU in 92
+92 (0 0) 2 2 CMAES SU 1/5
+started biggan at 2.23PM -003
+Ptsh good, biggan working well in evolutions
+Stopped briefly to drain juicer, started again, evolutions biggan work well still
+0b 
+Experiment: generate_BigGAN 
+Conditions: generate_BigGAN 
+Subject: Caos 
+Start time: Dec-09-2024 14:23:19 
+End time: Dec-09-2024 
+(Elapsed: 
+# of completed blocks: 22 
+Success rate: 55.96% (z 366 1 654) 
+Open MLpIayer for replay 
+0.3 
+o. 
+o. 
+0.1 
+o. 
+o. 
+005 
+0.1 
+0.15 
+0.2 
+025 
+ENTERED INTO BIGGAN</t>
+  </si>
+  <si>
+    <t>Manifold selectivity basic started at 2.48PM -004
+92 (0 0) 2 2 CMAS 1/5
+Started 200cc, 180cc, drank 380cc total
+ENTERED INTO MANIFOLD
+Rf mapper
+biggan_evolution
+manifold</t>
+  </si>
+  <si>
+    <t>RF mapping started 1.57PM
+Started 200cc water</t>
+  </si>
+  <si>
+    <t>Channel 68 potentially great channel
+Biggan run with SU channel 68
+68 (0,0),2 2 started at 1.16PM CMAS 1/5
+ENTERED INTO BIGGAN</t>
+  </si>
+  <si>
+    <t>Manifold started at 1.41PM
+Filled up to 200cc juice, has drank 110cc at 1.42PM
+68 (0 0) 2,2 CMAS 1/5
+ENTERED INTO MANIFOLD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Started biggan at 1.57PM
+Promising SU on channel 75 (0,0) 2,2
+0105 
+pas 
+Yikes
+Has drank 210cc total at 2.04PM
+Deepsim successful, biggan not. Channel appears working well.
+10 
+10 
+15 </t>
+  </si>
+  <si>
+    <t>Biggan MU on channel 69 (0,0) 2,1
+Started 2.18 PM
+02 
+025 
+That's more like it
+260cc total drank at 2.19PM
+ ENTERED INTO BIGGAN</t>
+  </si>
+  <si>
+    <t>Manifold started 2.40PM
+MU on channel 69
+(0,0) 2,1
+69 (0,0) 2,1
+Drank 310cc 2.41PM, 350cc total by end of expt at block 13 start.
+ENTERED INTO MANIFOLD</t>
+  </si>
+  <si>
     <t>Caos-06112023-001</t>
   </si>
   <si>
@@ -272,6 +386,36 @@
     <t>Caos-12042024-007</t>
   </si>
   <si>
+    <t>Caos-12092024-001</t>
+  </si>
+  <si>
+    <t>Caos-12092024-002</t>
+  </si>
+  <si>
+    <t>Caos-12092024-003</t>
+  </si>
+  <si>
+    <t>Caos-12092024-004</t>
+  </si>
+  <si>
+    <t>Caos-12102024-001</t>
+  </si>
+  <si>
+    <t>Caos-12102024-002</t>
+  </si>
+  <si>
+    <t>Caos-12102024-003</t>
+  </si>
+  <si>
+    <t>Caos-12102024-004</t>
+  </si>
+  <si>
+    <t>Caos-12102024-005</t>
+  </si>
+  <si>
+    <t>Caos-12102024-006</t>
+  </si>
+  <si>
     <t>231106_Caos_rfMapper_basic</t>
   </si>
   <si>
@@ -341,6 +485,36 @@
     <t>241204_152944_Caos_selectivity_basic</t>
   </si>
   <si>
+    <t>241209_135131_Caos_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>241209_140318_Caos_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>241209_142223_Caos_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>241209_144750_Caos_selectivity_basic</t>
+  </si>
+  <si>
+    <t>241210_125535_Caos_rfMapper_basic</t>
+  </si>
+  <si>
+    <t>241210_131541_Caos_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>241210_134049_Caos_selectivity_basic</t>
+  </si>
+  <si>
+    <t>241210_135612_Caos_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>241210_141645_Caos_generate_BigGAN</t>
+  </si>
+  <si>
+    <t>241210_143915_Caos_selectivity_basic</t>
+  </si>
+  <si>
     <t>N:\Stimuli\RFs\2023\11-06-Caos-01</t>
   </si>
   <si>
@@ -405,6 +579,30 @@
   </si>
   <si>
     <t>N:\Stimuli\Evolutions\2024\2024-12-04-Ev-Caos-02\2024-12-04-15-11-33\Hess_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-09-Ev-Caos-01\2024-12-09-14-03-59</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-09-Ev-Caos-02\2024-12-09-14-23-19</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-09-Ev-Caos-02\2024-12-09-14-23-19\Hess_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-10-Ev-Caos-01\2024-12-10-13-16-26</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-10-Ev-Caos-01\2024-12-10-13-16-26\Hess_imgs</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-10-Ev-Caos-02\2024-12-10-13-57-17</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-10-Ev-Caos-03\2024-12-10-14-17-59</t>
+  </si>
+  <si>
+    <t>N:\Stimuli\Evolutions\2024\2024-12-10-Ev-Caos-03\2024-12-10-14-17-59\Hess_imgs</t>
   </si>
 </sst>
 </file>
@@ -762,7 +960,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K24"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -808,13 +1006,13 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>59</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -822,13 +1020,13 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="K3" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -836,16 +1034,16 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>81</v>
       </c>
       <c r="H4">
         <v>71</v>
       </c>
       <c r="K4" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -853,16 +1051,16 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="H5">
         <v>71</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -870,16 +1068,16 @@
         <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="H6">
         <v>3</v>
       </c>
       <c r="K6" t="s">
-        <v>86</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -887,16 +1085,16 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="G7" t="s">
-        <v>64</v>
+        <v>84</v>
       </c>
       <c r="H7">
         <v>3</v>
       </c>
       <c r="K7" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -904,16 +1102,16 @@
         <v>20</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G8" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="H8">
         <v>3</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -921,16 +1119,16 @@
         <v>21</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
       <c r="H9">
         <v>3</v>
       </c>
       <c r="K9" t="s">
-        <v>89</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -938,13 +1136,13 @@
         <v>22</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -952,24 +1150,24 @@
         <v>23</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="G11" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
       <c r="K11" t="s">
-        <v>91</v>
+        <v>121</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="F12" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>89</v>
       </c>
       <c r="K12" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -980,16 +1178,16 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="G13" t="s">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="H13">
         <v>91</v>
       </c>
       <c r="K13" t="s">
-        <v>93</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -1000,16 +1198,16 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="G14" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="H14">
         <v>91</v>
       </c>
       <c r="K14" t="s">
-        <v>94</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1020,16 +1218,16 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="G15" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="H15">
         <v>93</v>
       </c>
       <c r="K15" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1040,16 +1238,16 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="G16" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="H16">
         <v>94</v>
       </c>
       <c r="K16" t="s">
-        <v>96</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="2:11">
@@ -1060,16 +1258,16 @@
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="H17">
         <v>94</v>
       </c>
       <c r="K17" t="s">
-        <v>97</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="2:11">
@@ -1077,13 +1275,13 @@
         <v>29</v>
       </c>
       <c r="F18" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="G18" t="s">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>92</v>
+        <v>122</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -1094,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="F19" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="G19" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H19">
         <v>71</v>
@@ -1106,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="K19" t="s">
-        <v>98</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:11">
@@ -1117,10 +1315,10 @@
         <v>31</v>
       </c>
       <c r="F20" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="G20" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="H20">
         <v>71</v>
@@ -1129,7 +1327,7 @@
         <v>2</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="2:11">
@@ -1140,13 +1338,13 @@
         <v>32</v>
       </c>
       <c r="F21" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="G21" t="s">
-        <v>78</v>
+        <v>98</v>
       </c>
       <c r="K21" t="s">
-        <v>100</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="2:11">
@@ -1157,13 +1355,13 @@
         <v>33</v>
       </c>
       <c r="F22" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="K22" t="s">
-        <v>101</v>
+        <v>131</v>
       </c>
     </row>
     <row r="23" spans="2:11">
@@ -1174,16 +1372,16 @@
         <v>34</v>
       </c>
       <c r="F23" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="G23" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="H23">
         <v>72</v>
       </c>
       <c r="K23" t="s">
-        <v>102</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="2:11">
@@ -1194,16 +1392,219 @@
         <v>35</v>
       </c>
       <c r="F24" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="G24" t="s">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="H24">
         <v>72</v>
       </c>
       <c r="K24" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+      <c r="F25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G25" t="s">
+        <v>102</v>
+      </c>
+      <c r="K25" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="26" spans="2:11">
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" t="s">
+        <v>70</v>
+      </c>
+      <c r="G26" t="s">
         <v>103</v>
+      </c>
+      <c r="H26">
+        <v>79</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+      <c r="K26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="2:11">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>71</v>
+      </c>
+      <c r="G27" t="s">
+        <v>104</v>
+      </c>
+      <c r="H27">
+        <v>92</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11">
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H28">
+        <v>92</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+      <c r="K28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="29" spans="2:11">
+      <c r="E29" t="s">
+        <v>40</v>
+      </c>
+      <c r="F29" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
+        <v>106</v>
+      </c>
+      <c r="K29" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11">
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30">
+        <v>68</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+      <c r="K30" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="2:11">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="E31" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" t="s">
+        <v>75</v>
+      </c>
+      <c r="G31" t="s">
+        <v>108</v>
+      </c>
+      <c r="H31">
+        <v>68</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" t="s">
+        <v>109</v>
+      </c>
+      <c r="K32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11">
+      <c r="B33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>77</v>
+      </c>
+      <c r="G33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33">
+        <v>69</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+      <c r="K33" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="2:11">
+      <c r="B34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34" t="s">
+        <v>45</v>
+      </c>
+      <c r="F34" t="s">
+        <v>78</v>
+      </c>
+      <c r="G34" t="s">
+        <v>111</v>
+      </c>
+      <c r="H34">
+        <v>69</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+      <c r="K34" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Exp_Record_Caos.xlsx
+++ b/Exp_Record_Caos.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FE76F42-FB25-4578-A32D-CEA017DB7EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="1515" yWindow="1515" windowWidth="38700" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -135,7 +141,7 @@
  003 at 309 PM, manifold. Had 100cc water and filled up to 200cc at 3.10PM.</t>
   </si>
   <si>
-    <t xml:space="preserve"> Generate biggan
+    <t> Generate biggan
  93 ( 0 0 ) 2 3 CMAES SU 1/5
  Caas-12022024-004, started recording 3.20PM, suppressed with varying ptsh quality, Big gan and deepsim evolutions above reference from early stage relative to previous expt, but deepsim still ahead by substantial margin with big gan generated images appearing to remain stuck on people and dog-like features. biggan not doing a damn thing, but deepsim doing well
  let's try an eye site?
@@ -151,7 +157,7 @@
  now time to do manifold</t>
   </si>
   <si>
-    <t xml:space="preserve"> 006 manifold
+    <t> 006 manifold
  alas, it's all dogs
  006 at 356 PM
  350cc total fluid consumed 4.03PM, stop 410PM consumed 325cc total.</t>
@@ -608,8 +614,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -672,13 +678,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -716,7 +730,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -750,6 +764,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -784,9 +799,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -959,14 +975,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1001,7 +1022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E2" t="s">
         <v>14</v>
       </c>
@@ -1015,7 +1036,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
         <v>15</v>
       </c>
@@ -1029,7 +1050,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
         <v>16</v>
       </c>
@@ -1046,7 +1067,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
         <v>17</v>
       </c>
@@ -1063,7 +1084,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
         <v>18</v>
       </c>
@@ -1080,7 +1101,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
         <v>19</v>
       </c>
@@ -1097,7 +1118,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>20</v>
       </c>
@@ -1114,7 +1135,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>21</v>
       </c>
@@ -1131,7 +1152,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>22</v>
       </c>
@@ -1145,7 +1166,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
         <v>23</v>
       </c>
@@ -1159,7 +1180,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>56</v>
       </c>
@@ -1170,10 +1191,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="E13" t="s">
         <v>24</v>
       </c>
@@ -1190,10 +1214,13 @@
         <v>123</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>12</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="E14" t="s">
         <v>25</v>
       </c>
@@ -1210,7 +1237,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>11</v>
       </c>
@@ -1230,10 +1257,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>11</v>
       </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
       <c r="E16" t="s">
         <v>27</v>
       </c>
@@ -1250,10 +1280,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="17" spans="2:11">
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>12</v>
       </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
       <c r="E17" t="s">
         <v>28</v>
       </c>
@@ -1270,7 +1303,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="18" spans="2:11">
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
         <v>29</v>
       </c>
@@ -1284,10 +1317,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="19" spans="2:11">
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>11</v>
       </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
       <c r="E19" t="s">
         <v>30</v>
       </c>
@@ -1307,10 +1343,13 @@
         <v>128</v>
       </c>
     </row>
-    <row r="20" spans="2:11">
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>12</v>
       </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
       <c r="E20" t="s">
         <v>31</v>
       </c>
@@ -1330,7 +1369,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="21" spans="2:11">
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>13</v>
       </c>
@@ -1347,7 +1386,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="22" spans="2:11">
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>13</v>
       </c>
@@ -1364,10 +1403,13 @@
         <v>131</v>
       </c>
     </row>
-    <row r="23" spans="2:11">
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>11</v>
       </c>
+      <c r="C23">
+        <v>4</v>
+      </c>
       <c r="E23" t="s">
         <v>34</v>
       </c>
@@ -1384,10 +1426,13 @@
         <v>132</v>
       </c>
     </row>
-    <row r="24" spans="2:11">
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>12</v>
       </c>
+      <c r="C24">
+        <v>4</v>
+      </c>
       <c r="E24" t="s">
         <v>35</v>
       </c>
@@ -1404,7 +1449,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="25" spans="2:11">
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
         <v>36</v>
       </c>
@@ -1418,7 +1463,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="26" spans="2:11">
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>11</v>
       </c>
@@ -1441,10 +1486,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="27" spans="2:11">
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
+      <c r="C27">
+        <v>5</v>
+      </c>
       <c r="E27" t="s">
         <v>38</v>
       </c>
@@ -1464,10 +1512,13 @@
         <v>135</v>
       </c>
     </row>
-    <row r="28" spans="2:11">
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>12</v>
       </c>
+      <c r="C28">
+        <v>5</v>
+      </c>
       <c r="E28" t="s">
         <v>39</v>
       </c>
@@ -1487,7 +1538,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="29" spans="2:11">
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
         <v>40</v>
       </c>
@@ -1501,10 +1552,13 @@
         <v>122</v>
       </c>
     </row>
-    <row r="30" spans="2:11">
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>11</v>
       </c>
+      <c r="C30">
+        <v>6</v>
+      </c>
       <c r="E30" t="s">
         <v>41</v>
       </c>
@@ -1524,10 +1578,13 @@
         <v>137</v>
       </c>
     </row>
-    <row r="31" spans="2:11">
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>12</v>
       </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
       <c r="E31" t="s">
         <v>42</v>
       </c>
@@ -1547,7 +1604,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="32" spans="2:11">
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>43</v>
       </c>
@@ -1561,10 +1618,13 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="2:11">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>11</v>
       </c>
+      <c r="C33">
+        <v>7</v>
+      </c>
       <c r="E33" t="s">
         <v>44</v>
       </c>
@@ -1584,9 +1644,12 @@
         <v>140</v>
       </c>
     </row>
-    <row r="34" spans="2:11">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>12</v>
+      </c>
+      <c r="C34">
+        <v>7</v>
       </c>
       <c r="E34" t="s">
         <v>45</v>
